--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P302"/>
+  <dimension ref="A1:R302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,6 +438,16 @@
           <t>Vote_Flag</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>delta_FF_CH</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>delta_FF_CU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -490,6 +500,12 @@
       <c r="P2">
         <v>0</v>
       </c>
+      <c r="Q2">
+        <v>6.400000000000006</v>
+      </c>
+      <c r="R2">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -542,6 +558,12 @@
       <c r="P3">
         <v>1</v>
       </c>
+      <c r="Q3">
+        <v>3.700000000000003</v>
+      </c>
+      <c r="R3">
+        <v>9.700000000000003</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -594,6 +616,12 @@
       <c r="P4">
         <v>0</v>
       </c>
+      <c r="Q4">
+        <v>3.299999999999997</v>
+      </c>
+      <c r="R4">
+        <v>11.60000000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -646,6 +674,12 @@
       <c r="P5">
         <v>0</v>
       </c>
+      <c r="Q5">
+        <v>4.5</v>
+      </c>
+      <c r="R5">
+        <v>12.90000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -698,6 +732,12 @@
       <c r="P6">
         <v>0</v>
       </c>
+      <c r="Q6">
+        <v>5.5</v>
+      </c>
+      <c r="R6">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -750,6 +790,12 @@
       <c r="P7">
         <v>1</v>
       </c>
+      <c r="Q7">
+        <v>7.600000000000009</v>
+      </c>
+      <c r="R7">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -802,6 +848,12 @@
       <c r="P8">
         <v>0</v>
       </c>
+      <c r="Q8">
+        <v>6.799999999999997</v>
+      </c>
+      <c r="R8">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -854,6 +906,12 @@
       <c r="P9">
         <v>0</v>
       </c>
+      <c r="Q9">
+        <v>9.600000000000009</v>
+      </c>
+      <c r="R9">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -906,6 +964,12 @@
       <c r="P10">
         <v>0</v>
       </c>
+      <c r="Q10">
+        <v>7.799999999999997</v>
+      </c>
+      <c r="R10">
+        <v>19.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -958,6 +1022,12 @@
       <c r="P11">
         <v>0</v>
       </c>
+      <c r="Q11">
+        <v>7.5</v>
+      </c>
+      <c r="R11">
+        <v>12.40000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1010,6 +1080,12 @@
       <c r="P12">
         <v>0</v>
       </c>
+      <c r="Q12">
+        <v>6.700000000000003</v>
+      </c>
+      <c r="R12">
+        <v>13.09999999999999</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1062,6 +1138,12 @@
       <c r="P13">
         <v>0</v>
       </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1114,6 +1196,12 @@
       <c r="P14">
         <v>0</v>
       </c>
+      <c r="Q14">
+        <v>6.900000000000006</v>
+      </c>
+      <c r="R14">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1166,6 +1254,12 @@
       <c r="P15">
         <v>0</v>
       </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>17.09999999999999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1218,6 +1312,12 @@
       <c r="P16">
         <v>0</v>
       </c>
+      <c r="Q16">
+        <v>6.700000000000003</v>
+      </c>
+      <c r="R16">
+        <v>11.60000000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1270,6 +1370,12 @@
       <c r="P17">
         <v>0</v>
       </c>
+      <c r="Q17">
+        <v>9.099999999999994</v>
+      </c>
+      <c r="R17">
+        <v>16.39999999999999</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1322,6 +1428,12 @@
       <c r="P18">
         <v>0</v>
       </c>
+      <c r="Q18">
+        <v>3.5</v>
+      </c>
+      <c r="R18">
+        <v>10.10000000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1374,6 +1486,12 @@
       <c r="P19">
         <v>0</v>
       </c>
+      <c r="Q19">
+        <v>6.5</v>
+      </c>
+      <c r="R19">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1426,6 +1544,12 @@
       <c r="P20">
         <v>0</v>
       </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+      <c r="R20">
+        <v>17.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1478,6 +1602,12 @@
       <c r="P21">
         <v>0</v>
       </c>
+      <c r="Q21">
+        <v>7.100000000000009</v>
+      </c>
+      <c r="R21">
+        <v>13.90000000000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1530,6 +1660,12 @@
       <c r="P22">
         <v>0</v>
       </c>
+      <c r="Q22">
+        <v>7.200000000000003</v>
+      </c>
+      <c r="R22">
+        <v>13.10000000000001</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1582,6 +1718,12 @@
       <c r="P23">
         <v>0</v>
       </c>
+      <c r="Q23">
+        <v>9.899999999999991</v>
+      </c>
+      <c r="R23">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1634,6 +1776,12 @@
       <c r="P24">
         <v>0</v>
       </c>
+      <c r="Q24">
+        <v>7.100000000000009</v>
+      </c>
+      <c r="R24">
+        <v>17.7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1686,6 +1834,12 @@
       <c r="P25">
         <v>0</v>
       </c>
+      <c r="Q25">
+        <v>8.899999999999991</v>
+      </c>
+      <c r="R25">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1738,6 +1892,12 @@
       <c r="P26">
         <v>0</v>
       </c>
+      <c r="Q26">
+        <v>10.89999999999999</v>
+      </c>
+      <c r="R26">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1790,6 +1950,12 @@
       <c r="P27">
         <v>0</v>
       </c>
+      <c r="Q27">
+        <v>5.5</v>
+      </c>
+      <c r="R27">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1842,6 +2008,12 @@
       <c r="P28">
         <v>0</v>
       </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1894,6 +2066,12 @@
       <c r="P29">
         <v>0</v>
       </c>
+      <c r="Q29">
+        <v>11.10000000000001</v>
+      </c>
+      <c r="R29">
+        <v>18</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1946,6 +2124,12 @@
       <c r="P30">
         <v>0</v>
       </c>
+      <c r="Q30">
+        <v>7</v>
+      </c>
+      <c r="R30">
+        <v>16</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1998,6 +2182,12 @@
       <c r="P31">
         <v>0</v>
       </c>
+      <c r="Q31">
+        <v>5.800000000000011</v>
+      </c>
+      <c r="R31">
+        <v>17.40000000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2050,6 +2240,12 @@
       <c r="P32">
         <v>0</v>
       </c>
+      <c r="Q32">
+        <v>7.400000000000006</v>
+      </c>
+      <c r="R32">
+        <v>14.10000000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2102,6 +2298,12 @@
       <c r="P33">
         <v>0</v>
       </c>
+      <c r="Q33">
+        <v>4.799999999999997</v>
+      </c>
+      <c r="R33">
+        <v>12.60000000000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2154,6 +2356,12 @@
       <c r="P34">
         <v>0</v>
       </c>
+      <c r="Q34">
+        <v>3.5</v>
+      </c>
+      <c r="R34">
+        <v>12.10000000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2206,6 +2414,12 @@
       <c r="P35">
         <v>0</v>
       </c>
+      <c r="Q35">
+        <v>10</v>
+      </c>
+      <c r="R35">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2258,6 +2472,12 @@
       <c r="P36">
         <v>0</v>
       </c>
+      <c r="Q36">
+        <v>11.5</v>
+      </c>
+      <c r="R36">
+        <v>19.39999999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2310,6 +2530,12 @@
       <c r="P37">
         <v>0</v>
       </c>
+      <c r="Q37">
+        <v>9.599999999999994</v>
+      </c>
+      <c r="R37">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2362,6 +2588,12 @@
       <c r="P38">
         <v>1</v>
       </c>
+      <c r="Q38">
+        <v>8.799999999999997</v>
+      </c>
+      <c r="R38">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2414,6 +2646,12 @@
       <c r="P39">
         <v>0</v>
       </c>
+      <c r="Q39">
+        <v>8.700000000000003</v>
+      </c>
+      <c r="R39">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2466,6 +2704,12 @@
       <c r="P40">
         <v>0</v>
       </c>
+      <c r="Q40">
+        <v>7.099999999999994</v>
+      </c>
+      <c r="R40">
+        <v>18.40000000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2518,6 +2762,12 @@
       <c r="P41">
         <v>0</v>
       </c>
+      <c r="Q41">
+        <v>7.299999999999997</v>
+      </c>
+      <c r="R41">
+        <v>19.40000000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2570,6 +2820,12 @@
       <c r="P42">
         <v>0</v>
       </c>
+      <c r="Q42">
+        <v>6.400000000000006</v>
+      </c>
+      <c r="R42">
+        <v>13</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2622,6 +2878,12 @@
       <c r="P43">
         <v>0</v>
       </c>
+      <c r="Q43">
+        <v>10</v>
+      </c>
+      <c r="R43">
+        <v>12.89999999999999</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2674,6 +2936,12 @@
       <c r="P44">
         <v>0</v>
       </c>
+      <c r="Q44">
+        <v>6</v>
+      </c>
+      <c r="R44">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2726,6 +2994,12 @@
       <c r="P45">
         <v>0</v>
       </c>
+      <c r="Q45">
+        <v>7.799999999999997</v>
+      </c>
+      <c r="R45">
+        <v>21.60000000000001</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2778,6 +3052,12 @@
       <c r="P46">
         <v>0</v>
       </c>
+      <c r="Q46">
+        <v>4.699999999999989</v>
+      </c>
+      <c r="R46">
+        <v>11.39999999999999</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2830,6 +3110,12 @@
       <c r="P47">
         <v>0</v>
       </c>
+      <c r="Q47">
+        <v>5.400000000000006</v>
+      </c>
+      <c r="R47">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2882,6 +3168,12 @@
       <c r="P48">
         <v>0</v>
       </c>
+      <c r="Q48">
+        <v>7.900000000000006</v>
+      </c>
+      <c r="R48">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2934,6 +3226,12 @@
       <c r="P49">
         <v>0</v>
       </c>
+      <c r="Q49">
+        <v>3.599999999999994</v>
+      </c>
+      <c r="R49">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2986,6 +3284,12 @@
       <c r="P50">
         <v>1</v>
       </c>
+      <c r="Q50">
+        <v>8.099999999999994</v>
+      </c>
+      <c r="R50">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3038,6 +3342,12 @@
       <c r="P51">
         <v>0</v>
       </c>
+      <c r="Q51">
+        <v>7.799999999999997</v>
+      </c>
+      <c r="R51">
+        <v>14.89999999999999</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3090,6 +3400,12 @@
       <c r="P52">
         <v>0</v>
       </c>
+      <c r="Q52">
+        <v>6.900000000000006</v>
+      </c>
+      <c r="R52">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3142,6 +3458,12 @@
       <c r="P53">
         <v>0</v>
       </c>
+      <c r="Q53">
+        <v>9</v>
+      </c>
+      <c r="R53">
+        <v>20.10000000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3194,6 +3516,12 @@
       <c r="P54">
         <v>0</v>
       </c>
+      <c r="Q54">
+        <v>10.7</v>
+      </c>
+      <c r="R54">
+        <v>16.59999999999999</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3246,6 +3574,12 @@
       <c r="P55">
         <v>1</v>
       </c>
+      <c r="Q55">
+        <v>7.5</v>
+      </c>
+      <c r="R55">
+        <v>19.8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3298,6 +3632,12 @@
       <c r="P56">
         <v>0</v>
       </c>
+      <c r="Q56">
+        <v>7.700000000000003</v>
+      </c>
+      <c r="R56">
+        <v>12.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3350,6 +3690,12 @@
       <c r="P57">
         <v>0</v>
       </c>
+      <c r="Q57">
+        <v>5.599999999999994</v>
+      </c>
+      <c r="R57">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3402,6 +3748,12 @@
       <c r="P58">
         <v>0</v>
       </c>
+      <c r="Q58">
+        <v>7.299999999999997</v>
+      </c>
+      <c r="R58">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3454,6 +3806,12 @@
       <c r="P59">
         <v>0</v>
       </c>
+      <c r="Q59">
+        <v>9.899999999999991</v>
+      </c>
+      <c r="R59">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3506,6 +3864,12 @@
       <c r="P60">
         <v>0</v>
       </c>
+      <c r="Q60">
+        <v>9</v>
+      </c>
+      <c r="R60">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3558,6 +3922,12 @@
       <c r="P61">
         <v>0</v>
       </c>
+      <c r="Q61">
+        <v>9.900000000000006</v>
+      </c>
+      <c r="R61">
+        <v>13.90000000000001</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3610,6 +3980,12 @@
       <c r="P62">
         <v>0</v>
       </c>
+      <c r="Q62">
+        <v>2.700000000000003</v>
+      </c>
+      <c r="R62">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3662,6 +4038,12 @@
       <c r="P63">
         <v>0</v>
       </c>
+      <c r="Q63">
+        <v>8.399999999999991</v>
+      </c>
+      <c r="R63">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3714,6 +4096,12 @@
       <c r="P64">
         <v>0</v>
       </c>
+      <c r="Q64">
+        <v>9.799999999999997</v>
+      </c>
+      <c r="R64">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3766,6 +4154,12 @@
       <c r="P65">
         <v>0</v>
       </c>
+      <c r="Q65">
+        <v>8.899999999999991</v>
+      </c>
+      <c r="R65">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3818,6 +4212,12 @@
       <c r="P66">
         <v>0</v>
       </c>
+      <c r="Q66">
+        <v>8.799999999999997</v>
+      </c>
+      <c r="R66">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3870,6 +4270,12 @@
       <c r="P67">
         <v>0</v>
       </c>
+      <c r="Q67">
+        <v>4.399999999999991</v>
+      </c>
+      <c r="R67">
+        <v>16.89999999999999</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3922,6 +4328,12 @@
       <c r="P68">
         <v>0</v>
       </c>
+      <c r="Q68">
+        <v>9.299999999999997</v>
+      </c>
+      <c r="R68">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3974,6 +4386,12 @@
       <c r="P69">
         <v>0</v>
       </c>
+      <c r="Q69">
+        <v>8.099999999999994</v>
+      </c>
+      <c r="R69">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4026,6 +4444,12 @@
       <c r="P70">
         <v>1</v>
       </c>
+      <c r="Q70">
+        <v>9</v>
+      </c>
+      <c r="R70">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4078,6 +4502,12 @@
       <c r="P71">
         <v>0</v>
       </c>
+      <c r="Q71">
+        <v>6.200000000000003</v>
+      </c>
+      <c r="R71">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4130,6 +4560,12 @@
       <c r="P72">
         <v>0</v>
       </c>
+      <c r="Q72">
+        <v>6.400000000000006</v>
+      </c>
+      <c r="R72">
+        <v>11.60000000000001</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4182,6 +4618,12 @@
       <c r="P73">
         <v>0</v>
       </c>
+      <c r="Q73">
+        <v>7.200000000000003</v>
+      </c>
+      <c r="R73">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4234,6 +4676,12 @@
       <c r="P74">
         <v>0</v>
       </c>
+      <c r="Q74">
+        <v>6.799999999999997</v>
+      </c>
+      <c r="R74">
+        <v>12.89999999999999</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4286,6 +4734,12 @@
       <c r="P75">
         <v>0</v>
       </c>
+      <c r="Q75">
+        <v>6.699999999999989</v>
+      </c>
+      <c r="R75">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4338,6 +4792,12 @@
       <c r="P76">
         <v>0</v>
       </c>
+      <c r="Q76">
+        <v>7.799999999999997</v>
+      </c>
+      <c r="R76">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4390,6 +4850,12 @@
       <c r="P77">
         <v>0</v>
       </c>
+      <c r="Q77">
+        <v>7.699999999999989</v>
+      </c>
+      <c r="R77">
+        <v>15.09999999999999</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4442,6 +4908,12 @@
       <c r="P78">
         <v>0</v>
       </c>
+      <c r="Q78">
+        <v>6.200000000000003</v>
+      </c>
+      <c r="R78">
+        <v>12.60000000000001</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4494,6 +4966,12 @@
       <c r="P79">
         <v>0</v>
       </c>
+      <c r="Q79">
+        <v>5.200000000000003</v>
+      </c>
+      <c r="R79">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4546,6 +5024,12 @@
       <c r="P80">
         <v>0</v>
       </c>
+      <c r="Q80">
+        <v>4.700000000000003</v>
+      </c>
+      <c r="R80">
+        <v>14.10000000000001</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4598,6 +5082,12 @@
       <c r="P81">
         <v>0</v>
       </c>
+      <c r="Q81">
+        <v>7.299999999999997</v>
+      </c>
+      <c r="R81">
+        <v>17.09999999999999</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4650,6 +5140,12 @@
       <c r="P82">
         <v>0</v>
       </c>
+      <c r="Q82">
+        <v>9.899999999999991</v>
+      </c>
+      <c r="R82">
+        <v>14.39999999999999</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4702,6 +5198,12 @@
       <c r="P83">
         <v>0</v>
       </c>
+      <c r="Q83">
+        <v>9.399999999999991</v>
+      </c>
+      <c r="R83">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4754,6 +5256,12 @@
       <c r="P84">
         <v>0</v>
       </c>
+      <c r="Q84">
+        <v>9.900000000000006</v>
+      </c>
+      <c r="R84">
+        <v>19</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4806,6 +5314,12 @@
       <c r="P85">
         <v>0</v>
       </c>
+      <c r="Q85">
+        <v>7.399999999999991</v>
+      </c>
+      <c r="R85">
+        <v>16.09999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4858,6 +5372,12 @@
       <c r="P86">
         <v>0</v>
       </c>
+      <c r="Q86">
+        <v>10.5</v>
+      </c>
+      <c r="R86">
+        <v>17.19999999999999</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4910,6 +5430,12 @@
       <c r="P87">
         <v>0</v>
       </c>
+      <c r="Q87">
+        <v>8.700000000000003</v>
+      </c>
+      <c r="R87">
+        <v>14.39999999999999</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4962,6 +5488,12 @@
       <c r="P88">
         <v>0</v>
       </c>
+      <c r="Q88">
+        <v>9.300000000000011</v>
+      </c>
+      <c r="R88">
+        <v>15.80000000000001</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5014,6 +5546,12 @@
       <c r="P89">
         <v>0</v>
       </c>
+      <c r="Q89">
+        <v>6.299999999999997</v>
+      </c>
+      <c r="R89">
+        <v>13</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5066,6 +5604,12 @@
       <c r="P90">
         <v>0</v>
       </c>
+      <c r="Q90">
+        <v>5</v>
+      </c>
+      <c r="R90">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5118,6 +5662,12 @@
       <c r="P91">
         <v>0</v>
       </c>
+      <c r="Q91">
+        <v>6.799999999999997</v>
+      </c>
+      <c r="R91">
+        <v>12.60000000000001</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5170,6 +5720,12 @@
       <c r="P92">
         <v>0</v>
       </c>
+      <c r="Q92">
+        <v>6.600000000000009</v>
+      </c>
+      <c r="R92">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5222,6 +5778,12 @@
       <c r="P93">
         <v>0</v>
       </c>
+      <c r="Q93">
+        <v>5.099999999999994</v>
+      </c>
+      <c r="R93">
+        <v>13</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5274,6 +5836,12 @@
       <c r="P94">
         <v>0</v>
       </c>
+      <c r="Q94">
+        <v>10.2</v>
+      </c>
+      <c r="R94">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5326,6 +5894,12 @@
       <c r="P95">
         <v>1</v>
       </c>
+      <c r="Q95">
+        <v>7.100000000000009</v>
+      </c>
+      <c r="R95">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5378,6 +5952,12 @@
       <c r="P96">
         <v>0</v>
       </c>
+      <c r="Q96">
+        <v>5.899999999999991</v>
+      </c>
+      <c r="R96">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5430,6 +6010,12 @@
       <c r="P97">
         <v>0</v>
       </c>
+      <c r="Q97">
+        <v>5.799999999999997</v>
+      </c>
+      <c r="R97">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5482,6 +6068,12 @@
       <c r="P98">
         <v>0</v>
       </c>
+      <c r="Q98">
+        <v>5.700000000000003</v>
+      </c>
+      <c r="R98">
+        <v>13.40000000000001</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5534,6 +6126,12 @@
       <c r="P99">
         <v>0</v>
       </c>
+      <c r="Q99">
+        <v>7.5</v>
+      </c>
+      <c r="R99">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5586,6 +6184,12 @@
       <c r="P100">
         <v>0</v>
       </c>
+      <c r="Q100">
+        <v>4.5</v>
+      </c>
+      <c r="R100">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5638,6 +6242,12 @@
       <c r="P101">
         <v>0</v>
       </c>
+      <c r="Q101">
+        <v>18.59999999999999</v>
+      </c>
+      <c r="R101">
+        <v>16.69999999999999</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5690,6 +6300,12 @@
       <c r="P102">
         <v>1</v>
       </c>
+      <c r="Q102">
+        <v>7.900000000000006</v>
+      </c>
+      <c r="R102">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5742,6 +6358,12 @@
       <c r="P103">
         <v>0</v>
       </c>
+      <c r="Q103">
+        <v>8.600000000000009</v>
+      </c>
+      <c r="R103">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5794,6 +6416,12 @@
       <c r="P104">
         <v>0</v>
       </c>
+      <c r="Q104">
+        <v>5.899999999999991</v>
+      </c>
+      <c r="R104">
+        <v>11.09999999999999</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5846,6 +6474,12 @@
       <c r="P105">
         <v>0</v>
       </c>
+      <c r="Q105">
+        <v>8.5</v>
+      </c>
+      <c r="R105">
+        <v>16.40000000000001</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5898,6 +6532,12 @@
       <c r="P106">
         <v>0</v>
       </c>
+      <c r="Q106">
+        <v>7.799999999999997</v>
+      </c>
+      <c r="R106">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5950,6 +6590,12 @@
       <c r="P107">
         <v>0</v>
       </c>
+      <c r="Q107">
+        <v>8.599999999999994</v>
+      </c>
+      <c r="R107">
+        <v>17.09999999999999</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6002,6 +6648,12 @@
       <c r="P108">
         <v>0</v>
       </c>
+      <c r="Q108">
+        <v>7.300000000000011</v>
+      </c>
+      <c r="R108">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6054,6 +6706,12 @@
       <c r="P109">
         <v>0</v>
       </c>
+      <c r="Q109">
+        <v>15.39999999999999</v>
+      </c>
+      <c r="R109">
+        <v>20.2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6106,6 +6764,12 @@
       <c r="P110">
         <v>0</v>
       </c>
+      <c r="Q110">
+        <v>8.5</v>
+      </c>
+      <c r="R110">
+        <v>15.89999999999999</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6158,6 +6822,12 @@
       <c r="P111">
         <v>0</v>
       </c>
+      <c r="Q111">
+        <v>7.300000000000011</v>
+      </c>
+      <c r="R111">
+        <v>18.90000000000001</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6210,6 +6880,12 @@
       <c r="P112">
         <v>0</v>
       </c>
+      <c r="Q112">
+        <v>2.5</v>
+      </c>
+      <c r="R112">
+        <v>17.80000000000001</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6262,6 +6938,12 @@
       <c r="P113">
         <v>0</v>
       </c>
+      <c r="Q113">
+        <v>9</v>
+      </c>
+      <c r="R113">
+        <v>13.60000000000001</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6314,6 +6996,12 @@
       <c r="P114">
         <v>0</v>
       </c>
+      <c r="Q114">
+        <v>11.8</v>
+      </c>
+      <c r="R114">
+        <v>15.60000000000001</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6366,6 +7054,12 @@
       <c r="P115">
         <v>0</v>
       </c>
+      <c r="Q115">
+        <v>8.100000000000009</v>
+      </c>
+      <c r="R115">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6418,6 +7112,12 @@
       <c r="P116">
         <v>0</v>
       </c>
+      <c r="Q116">
+        <v>6.399999999999991</v>
+      </c>
+      <c r="R116">
+        <v>14.09999999999999</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6470,6 +7170,12 @@
       <c r="P117">
         <v>0</v>
       </c>
+      <c r="Q117">
+        <v>9.200000000000003</v>
+      </c>
+      <c r="R117">
+        <v>15</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6522,6 +7228,12 @@
       <c r="P118">
         <v>0</v>
       </c>
+      <c r="Q118">
+        <v>8.699999999999989</v>
+      </c>
+      <c r="R118">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6574,6 +7286,12 @@
       <c r="P119">
         <v>0</v>
       </c>
+      <c r="Q119">
+        <v>5.900000000000006</v>
+      </c>
+      <c r="R119">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6626,6 +7344,12 @@
       <c r="P120">
         <v>0</v>
       </c>
+      <c r="Q120">
+        <v>6.799999999999997</v>
+      </c>
+      <c r="R120">
+        <v>13.39999999999999</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6678,6 +7402,12 @@
       <c r="P121">
         <v>0</v>
       </c>
+      <c r="Q121">
+        <v>6.599999999999994</v>
+      </c>
+      <c r="R121">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6730,6 +7460,12 @@
       <c r="P122">
         <v>0</v>
       </c>
+      <c r="Q122">
+        <v>6</v>
+      </c>
+      <c r="R122">
+        <v>14.90000000000001</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6782,6 +7518,12 @@
       <c r="P123">
         <v>0</v>
       </c>
+      <c r="Q123">
+        <v>7.200000000000003</v>
+      </c>
+      <c r="R123">
+        <v>13.80000000000001</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6834,6 +7576,12 @@
       <c r="P124">
         <v>0</v>
       </c>
+      <c r="Q124">
+        <v>9.399999999999991</v>
+      </c>
+      <c r="R124">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6886,6 +7634,12 @@
       <c r="P125">
         <v>0</v>
       </c>
+      <c r="Q125">
+        <v>9.600000000000009</v>
+      </c>
+      <c r="R125">
+        <v>22.90000000000001</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6938,6 +7692,12 @@
       <c r="P126">
         <v>0</v>
       </c>
+      <c r="Q126">
+        <v>5.700000000000003</v>
+      </c>
+      <c r="R126">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6990,6 +7750,12 @@
       <c r="P127">
         <v>0</v>
       </c>
+      <c r="Q127">
+        <v>7.599999999999994</v>
+      </c>
+      <c r="R127">
+        <v>17.3</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7042,6 +7808,12 @@
       <c r="P128">
         <v>0</v>
       </c>
+      <c r="Q128">
+        <v>8.5</v>
+      </c>
+      <c r="R128">
+        <v>18</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7094,6 +7866,12 @@
       <c r="P129">
         <v>0</v>
       </c>
+      <c r="Q129">
+        <v>5.400000000000006</v>
+      </c>
+      <c r="R129">
+        <v>16.60000000000001</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7146,6 +7924,12 @@
       <c r="P130">
         <v>0</v>
       </c>
+      <c r="Q130">
+        <v>7.099999999999994</v>
+      </c>
+      <c r="R130">
+        <v>12.59999999999999</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7198,6 +7982,12 @@
       <c r="P131">
         <v>0</v>
       </c>
+      <c r="Q131">
+        <v>6.299999999999997</v>
+      </c>
+      <c r="R131">
+        <v>17.19999999999999</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7250,6 +8040,12 @@
       <c r="P132">
         <v>0</v>
       </c>
+      <c r="Q132">
+        <v>3.700000000000003</v>
+      </c>
+      <c r="R132">
+        <v>16</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7302,6 +8098,12 @@
       <c r="P133">
         <v>0</v>
       </c>
+      <c r="Q133">
+        <v>8.600000000000009</v>
+      </c>
+      <c r="R133">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7354,6 +8156,12 @@
       <c r="P134">
         <v>0</v>
       </c>
+      <c r="Q134">
+        <v>8.599999999999994</v>
+      </c>
+      <c r="R134">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7406,6 +8214,12 @@
       <c r="P135">
         <v>0</v>
       </c>
+      <c r="Q135">
+        <v>12.2</v>
+      </c>
+      <c r="R135">
+        <v>20.3</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7458,6 +8272,12 @@
       <c r="P136">
         <v>0</v>
       </c>
+      <c r="Q136">
+        <v>9.300000000000011</v>
+      </c>
+      <c r="R136">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7510,6 +8330,12 @@
       <c r="P137">
         <v>0</v>
       </c>
+      <c r="Q137">
+        <v>6.799999999999997</v>
+      </c>
+      <c r="R137">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7562,6 +8388,12 @@
       <c r="P138">
         <v>0</v>
       </c>
+      <c r="Q138">
+        <v>6.400000000000006</v>
+      </c>
+      <c r="R138">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7614,6 +8446,12 @@
       <c r="P139">
         <v>0</v>
       </c>
+      <c r="Q139">
+        <v>8.800000000000011</v>
+      </c>
+      <c r="R139">
+        <v>13.90000000000001</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7666,6 +8504,12 @@
       <c r="P140">
         <v>0</v>
       </c>
+      <c r="Q140">
+        <v>5.900000000000006</v>
+      </c>
+      <c r="R140">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7718,6 +8562,12 @@
       <c r="P141">
         <v>0</v>
       </c>
+      <c r="Q141">
+        <v>6.700000000000003</v>
+      </c>
+      <c r="R141">
+        <v>14</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7770,6 +8620,12 @@
       <c r="P142">
         <v>1</v>
       </c>
+      <c r="Q142">
+        <v>10</v>
+      </c>
+      <c r="R142">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7822,6 +8678,12 @@
       <c r="P143">
         <v>0</v>
       </c>
+      <c r="Q143">
+        <v>7</v>
+      </c>
+      <c r="R143">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7874,6 +8736,12 @@
       <c r="P144">
         <v>0</v>
       </c>
+      <c r="Q144">
+        <v>6.5</v>
+      </c>
+      <c r="R144">
+        <v>13.59999999999999</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7926,6 +8794,12 @@
       <c r="P145">
         <v>0</v>
       </c>
+      <c r="Q145">
+        <v>6.5</v>
+      </c>
+      <c r="R145">
+        <v>9.599999999999994</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7978,6 +8852,12 @@
       <c r="P146">
         <v>0</v>
       </c>
+      <c r="Q146">
+        <v>6.800000000000011</v>
+      </c>
+      <c r="R146">
+        <v>13.80000000000001</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8030,6 +8910,12 @@
       <c r="P147">
         <v>0</v>
       </c>
+      <c r="Q147">
+        <v>10.3</v>
+      </c>
+      <c r="R147">
+        <v>13.90000000000001</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8082,6 +8968,12 @@
       <c r="P148">
         <v>1</v>
       </c>
+      <c r="Q148">
+        <v>5.5</v>
+      </c>
+      <c r="R148">
+        <v>10.39999999999999</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8134,6 +9026,12 @@
       <c r="P149">
         <v>0</v>
       </c>
+      <c r="Q149">
+        <v>7.699999999999989</v>
+      </c>
+      <c r="R149">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8186,6 +9084,12 @@
       <c r="P150">
         <v>0</v>
       </c>
+      <c r="Q150">
+        <v>4.800000000000011</v>
+      </c>
+      <c r="R150">
+        <v>11.90000000000001</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8238,6 +9142,12 @@
       <c r="P151">
         <v>0</v>
       </c>
+      <c r="Q151">
+        <v>13.40000000000001</v>
+      </c>
+      <c r="R151">
+        <v>17</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8290,6 +9200,12 @@
       <c r="P152">
         <v>0</v>
       </c>
+      <c r="Q152">
+        <v>6.900000000000006</v>
+      </c>
+      <c r="R152">
+        <v>14.40000000000001</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8342,6 +9258,12 @@
       <c r="P153">
         <v>1</v>
       </c>
+      <c r="Q153">
+        <v>8.5</v>
+      </c>
+      <c r="R153">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8394,6 +9316,12 @@
       <c r="P154">
         <v>0</v>
       </c>
+      <c r="Q154">
+        <v>8.799999999999997</v>
+      </c>
+      <c r="R154">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8446,6 +9374,12 @@
       <c r="P155">
         <v>0</v>
       </c>
+      <c r="Q155">
+        <v>6.200000000000003</v>
+      </c>
+      <c r="R155">
+        <v>11.40000000000001</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8498,6 +9432,12 @@
       <c r="P156">
         <v>0</v>
       </c>
+      <c r="Q156">
+        <v>8.5</v>
+      </c>
+      <c r="R156">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8550,6 +9490,12 @@
       <c r="P157">
         <v>0</v>
       </c>
+      <c r="Q157">
+        <v>7.099999999999994</v>
+      </c>
+      <c r="R157">
+        <v>15.89999999999999</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8602,6 +9548,12 @@
       <c r="P158">
         <v>0</v>
       </c>
+      <c r="Q158">
+        <v>7.200000000000003</v>
+      </c>
+      <c r="R158">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8654,6 +9606,12 @@
       <c r="P159">
         <v>0</v>
       </c>
+      <c r="Q159">
+        <v>6.300000000000011</v>
+      </c>
+      <c r="R159">
+        <v>16.40000000000001</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8706,6 +9664,12 @@
       <c r="P160">
         <v>0</v>
       </c>
+      <c r="Q160">
+        <v>8.099999999999994</v>
+      </c>
+      <c r="R160">
+        <v>15.39999999999999</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8758,6 +9722,12 @@
       <c r="P161">
         <v>0</v>
       </c>
+      <c r="Q161">
+        <v>6.900000000000006</v>
+      </c>
+      <c r="R161">
+        <v>11</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8810,6 +9780,12 @@
       <c r="P162">
         <v>0</v>
       </c>
+      <c r="Q162">
+        <v>8.100000000000009</v>
+      </c>
+      <c r="R162">
+        <v>13.30000000000001</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8862,6 +9838,12 @@
       <c r="P163">
         <v>0</v>
       </c>
+      <c r="Q163">
+        <v>7.5</v>
+      </c>
+      <c r="R163">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8914,6 +9896,12 @@
       <c r="P164">
         <v>0</v>
       </c>
+      <c r="Q164">
+        <v>5.200000000000003</v>
+      </c>
+      <c r="R164">
+        <v>10.60000000000001</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8966,6 +9954,12 @@
       <c r="P165">
         <v>0</v>
       </c>
+      <c r="Q165">
+        <v>9.099999999999994</v>
+      </c>
+      <c r="R165">
+        <v>13.90000000000001</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9018,6 +10012,12 @@
       <c r="P166">
         <v>0</v>
       </c>
+      <c r="Q166">
+        <v>7.100000000000009</v>
+      </c>
+      <c r="R166">
+        <v>12.40000000000001</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9070,6 +10070,12 @@
       <c r="P167">
         <v>0</v>
       </c>
+      <c r="Q167">
+        <v>7.799999999999997</v>
+      </c>
+      <c r="R167">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9122,6 +10128,12 @@
       <c r="P168">
         <v>0</v>
       </c>
+      <c r="Q168">
+        <v>8</v>
+      </c>
+      <c r="R168">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9174,6 +10186,12 @@
       <c r="P169">
         <v>0</v>
       </c>
+      <c r="Q169">
+        <v>7.5</v>
+      </c>
+      <c r="R169">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9226,6 +10244,12 @@
       <c r="P170">
         <v>0</v>
       </c>
+      <c r="Q170">
+        <v>8.200000000000003</v>
+      </c>
+      <c r="R170">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9278,6 +10302,12 @@
       <c r="P171">
         <v>0</v>
       </c>
+      <c r="Q171">
+        <v>6.799999999999997</v>
+      </c>
+      <c r="R171">
+        <v>12.59999999999999</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9330,6 +10360,12 @@
       <c r="P172">
         <v>0</v>
       </c>
+      <c r="Q172">
+        <v>11.40000000000001</v>
+      </c>
+      <c r="R172">
+        <v>17.10000000000001</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9382,6 +10418,12 @@
       <c r="P173">
         <v>0</v>
       </c>
+      <c r="Q173">
+        <v>9.799999999999997</v>
+      </c>
+      <c r="R173">
+        <v>13.40000000000001</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9434,6 +10476,12 @@
       <c r="P174">
         <v>0</v>
       </c>
+      <c r="Q174">
+        <v>6.599999999999994</v>
+      </c>
+      <c r="R174">
+        <v>14.90000000000001</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9486,6 +10534,12 @@
       <c r="P175">
         <v>0</v>
       </c>
+      <c r="Q175">
+        <v>9.299999999999997</v>
+      </c>
+      <c r="R175">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9538,6 +10592,12 @@
       <c r="P176">
         <v>0</v>
       </c>
+      <c r="Q176">
+        <v>7.900000000000006</v>
+      </c>
+      <c r="R176">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9590,6 +10650,12 @@
       <c r="P177">
         <v>0</v>
       </c>
+      <c r="Q177">
+        <v>8.599999999999994</v>
+      </c>
+      <c r="R177">
+        <v>19</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9642,6 +10708,12 @@
       <c r="P178">
         <v>0</v>
       </c>
+      <c r="Q178">
+        <v>7.699999999999989</v>
+      </c>
+      <c r="R178">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9694,6 +10766,12 @@
       <c r="P179">
         <v>1</v>
       </c>
+      <c r="Q179">
+        <v>6.299999999999997</v>
+      </c>
+      <c r="R179">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9746,6 +10824,12 @@
       <c r="P180">
         <v>0</v>
       </c>
+      <c r="Q180">
+        <v>7.400000000000006</v>
+      </c>
+      <c r="R180">
+        <v>10.60000000000001</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9798,6 +10882,12 @@
       <c r="P181">
         <v>0</v>
       </c>
+      <c r="Q181">
+        <v>6.899999999999991</v>
+      </c>
+      <c r="R181">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9850,6 +10940,12 @@
       <c r="P182">
         <v>0</v>
       </c>
+      <c r="Q182">
+        <v>5.099999999999994</v>
+      </c>
+      <c r="R182">
+        <v>15</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9902,6 +10998,12 @@
       <c r="P183">
         <v>0</v>
       </c>
+      <c r="Q183">
+        <v>8.100000000000009</v>
+      </c>
+      <c r="R183">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9954,6 +11056,12 @@
       <c r="P184">
         <v>0</v>
       </c>
+      <c r="Q184">
+        <v>10.2</v>
+      </c>
+      <c r="R184">
+        <v>16.09999999999999</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10006,6 +11114,12 @@
       <c r="P185">
         <v>0</v>
       </c>
+      <c r="Q185">
+        <v>10</v>
+      </c>
+      <c r="R185">
+        <v>16</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10058,6 +11172,12 @@
       <c r="P186">
         <v>0</v>
       </c>
+      <c r="Q186">
+        <v>6.199999999999989</v>
+      </c>
+      <c r="R186">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10110,6 +11230,12 @@
       <c r="P187">
         <v>1</v>
       </c>
+      <c r="Q187">
+        <v>10.60000000000001</v>
+      </c>
+      <c r="R187">
+        <v>16.40000000000001</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10162,6 +11288,12 @@
       <c r="P188">
         <v>0</v>
       </c>
+      <c r="Q188">
+        <v>6.700000000000003</v>
+      </c>
+      <c r="R188">
+        <v>14.90000000000001</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10214,6 +11346,12 @@
       <c r="P189">
         <v>0</v>
       </c>
+      <c r="Q189">
+        <v>9.200000000000003</v>
+      </c>
+      <c r="R189">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10266,6 +11404,12 @@
       <c r="P190">
         <v>0</v>
       </c>
+      <c r="Q190">
+        <v>5</v>
+      </c>
+      <c r="R190">
+        <v>19.59999999999999</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10318,6 +11462,12 @@
       <c r="P191">
         <v>0</v>
       </c>
+      <c r="Q191">
+        <v>7.700000000000003</v>
+      </c>
+      <c r="R191">
+        <v>14.30000000000001</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10370,6 +11520,12 @@
       <c r="P192">
         <v>0</v>
       </c>
+      <c r="Q192">
+        <v>7.899999999999991</v>
+      </c>
+      <c r="R192">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10422,6 +11578,12 @@
       <c r="P193">
         <v>0</v>
       </c>
+      <c r="Q193">
+        <v>6.700000000000003</v>
+      </c>
+      <c r="R193">
+        <v>17.39999999999999</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10474,6 +11636,12 @@
       <c r="P194">
         <v>0</v>
       </c>
+      <c r="Q194">
+        <v>6.100000000000009</v>
+      </c>
+      <c r="R194">
+        <v>14.90000000000001</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10526,6 +11694,12 @@
       <c r="P195">
         <v>0</v>
       </c>
+      <c r="Q195">
+        <v>12.89999999999999</v>
+      </c>
+      <c r="R195">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10578,6 +11752,12 @@
       <c r="P196">
         <v>0</v>
       </c>
+      <c r="Q196">
+        <v>9.299999999999997</v>
+      </c>
+      <c r="R196">
+        <v>13.59999999999999</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10630,6 +11810,12 @@
       <c r="P197">
         <v>0</v>
       </c>
+      <c r="Q197">
+        <v>7.5</v>
+      </c>
+      <c r="R197">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10682,6 +11868,12 @@
       <c r="P198">
         <v>0</v>
       </c>
+      <c r="Q198">
+        <v>7.899999999999991</v>
+      </c>
+      <c r="R198">
+        <v>17.09999999999999</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10734,6 +11926,12 @@
       <c r="P199">
         <v>0</v>
       </c>
+      <c r="Q199">
+        <v>7.5</v>
+      </c>
+      <c r="R199">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10786,6 +11984,12 @@
       <c r="P200">
         <v>0</v>
       </c>
+      <c r="Q200">
+        <v>5.700000000000003</v>
+      </c>
+      <c r="R200">
+        <v>12.10000000000001</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10838,6 +12042,12 @@
       <c r="P201">
         <v>0</v>
       </c>
+      <c r="Q201">
+        <v>9.299999999999997</v>
+      </c>
+      <c r="R201">
+        <v>12</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10890,6 +12100,12 @@
       <c r="P202">
         <v>0</v>
       </c>
+      <c r="Q202">
+        <v>8.099999999999994</v>
+      </c>
+      <c r="R202">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10942,6 +12158,12 @@
       <c r="P203">
         <v>1</v>
       </c>
+      <c r="Q203">
+        <v>7</v>
+      </c>
+      <c r="R203">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -10994,6 +12216,12 @@
       <c r="P204">
         <v>0</v>
       </c>
+      <c r="Q204">
+        <v>9.400000000000006</v>
+      </c>
+      <c r="R204">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11046,6 +12274,12 @@
       <c r="P205">
         <v>0</v>
       </c>
+      <c r="Q205">
+        <v>8</v>
+      </c>
+      <c r="R205">
+        <v>17</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11098,6 +12332,12 @@
       <c r="P206">
         <v>0</v>
       </c>
+      <c r="Q206">
+        <v>6.100000000000009</v>
+      </c>
+      <c r="R206">
+        <v>14</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11150,6 +12390,12 @@
       <c r="P207">
         <v>0</v>
       </c>
+      <c r="Q207">
+        <v>7.099999999999994</v>
+      </c>
+      <c r="R207">
+        <v>13.09999999999999</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11202,6 +12448,12 @@
       <c r="P208">
         <v>1</v>
       </c>
+      <c r="Q208">
+        <v>8.5</v>
+      </c>
+      <c r="R208">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11254,6 +12506,12 @@
       <c r="P209">
         <v>0</v>
       </c>
+      <c r="Q209">
+        <v>11.7</v>
+      </c>
+      <c r="R209">
+        <v>17.10000000000001</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11306,6 +12564,12 @@
       <c r="P210">
         <v>0</v>
       </c>
+      <c r="Q210">
+        <v>7.5</v>
+      </c>
+      <c r="R210">
+        <v>12.39999999999999</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11358,6 +12622,12 @@
       <c r="P211">
         <v>0</v>
       </c>
+      <c r="Q211">
+        <v>10.7</v>
+      </c>
+      <c r="R211">
+        <v>13.80000000000001</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11410,6 +12680,12 @@
       <c r="P212">
         <v>0</v>
       </c>
+      <c r="Q212">
+        <v>8.599999999999994</v>
+      </c>
+      <c r="R212">
+        <v>14.59999999999999</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11462,6 +12738,12 @@
       <c r="P213">
         <v>0</v>
       </c>
+      <c r="Q213">
+        <v>3</v>
+      </c>
+      <c r="R213">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11514,6 +12796,12 @@
       <c r="P214">
         <v>0</v>
       </c>
+      <c r="Q214">
+        <v>8.300000000000011</v>
+      </c>
+      <c r="R214">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11566,6 +12854,12 @@
       <c r="P215">
         <v>0</v>
       </c>
+      <c r="Q215">
+        <v>6.599999999999994</v>
+      </c>
+      <c r="R215">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11618,6 +12912,12 @@
       <c r="P216">
         <v>0</v>
       </c>
+      <c r="Q216">
+        <v>8</v>
+      </c>
+      <c r="R216">
+        <v>13.89999999999999</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11670,6 +12970,12 @@
       <c r="P217">
         <v>0</v>
       </c>
+      <c r="Q217">
+        <v>7.799999999999997</v>
+      </c>
+      <c r="R217">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11722,6 +13028,12 @@
       <c r="P218">
         <v>0</v>
       </c>
+      <c r="Q218">
+        <v>5.599999999999994</v>
+      </c>
+      <c r="R218">
+        <v>12.89999999999999</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -11774,6 +13086,12 @@
       <c r="P219">
         <v>0</v>
       </c>
+      <c r="Q219">
+        <v>11.90000000000001</v>
+      </c>
+      <c r="R219">
+        <v>19.59999999999999</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -11826,6 +13144,12 @@
       <c r="P220">
         <v>0</v>
       </c>
+      <c r="Q220">
+        <v>8</v>
+      </c>
+      <c r="R220">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -11878,6 +13202,12 @@
       <c r="P221">
         <v>0</v>
       </c>
+      <c r="Q221">
+        <v>7.299999999999997</v>
+      </c>
+      <c r="R221">
+        <v>14.39999999999999</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -11930,6 +13260,12 @@
       <c r="P222">
         <v>0</v>
       </c>
+      <c r="Q222">
+        <v>9.700000000000003</v>
+      </c>
+      <c r="R222">
+        <v>13.40000000000001</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -11982,6 +13318,12 @@
       <c r="P223">
         <v>0</v>
       </c>
+      <c r="Q223">
+        <v>10.2</v>
+      </c>
+      <c r="R223">
+        <v>20.09999999999999</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12034,6 +13376,12 @@
       <c r="P224">
         <v>0</v>
       </c>
+      <c r="Q224">
+        <v>7</v>
+      </c>
+      <c r="R224">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12086,6 +13434,12 @@
       <c r="P225">
         <v>0</v>
       </c>
+      <c r="Q225">
+        <v>8.700000000000003</v>
+      </c>
+      <c r="R225">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12138,6 +13492,12 @@
       <c r="P226">
         <v>0</v>
       </c>
+      <c r="Q226">
+        <v>6.599999999999994</v>
+      </c>
+      <c r="R226">
+        <v>15.59999999999999</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12190,6 +13550,12 @@
       <c r="P227">
         <v>0</v>
       </c>
+      <c r="Q227">
+        <v>9.899999999999991</v>
+      </c>
+      <c r="R227">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12242,6 +13608,12 @@
       <c r="P228">
         <v>0</v>
       </c>
+      <c r="Q228">
+        <v>6.099999999999994</v>
+      </c>
+      <c r="R228">
+        <v>8.799999999999997</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12294,6 +13666,12 @@
       <c r="P229">
         <v>0</v>
       </c>
+      <c r="Q229">
+        <v>9.599999999999994</v>
+      </c>
+      <c r="R229">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12346,6 +13724,12 @@
       <c r="P230">
         <v>0</v>
       </c>
+      <c r="Q230">
+        <v>8.099999999999994</v>
+      </c>
+      <c r="R230">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12398,6 +13782,12 @@
       <c r="P231">
         <v>1</v>
       </c>
+      <c r="Q231">
+        <v>10.5</v>
+      </c>
+      <c r="R231">
+        <v>16</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12450,6 +13840,12 @@
       <c r="P232">
         <v>0</v>
       </c>
+      <c r="Q232">
+        <v>7</v>
+      </c>
+      <c r="R232">
+        <v>15.39999999999999</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12502,6 +13898,12 @@
       <c r="P233">
         <v>1</v>
       </c>
+      <c r="Q233">
+        <v>8.299999999999997</v>
+      </c>
+      <c r="R233">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -12554,6 +13956,12 @@
       <c r="P234">
         <v>0</v>
       </c>
+      <c r="Q234">
+        <v>6.599999999999994</v>
+      </c>
+      <c r="R234">
+        <v>13</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -12606,6 +14014,12 @@
       <c r="P235">
         <v>0</v>
       </c>
+      <c r="Q235">
+        <v>7.099999999999994</v>
+      </c>
+      <c r="R235">
+        <v>13.39999999999999</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -12658,6 +14072,12 @@
       <c r="P236">
         <v>0</v>
       </c>
+      <c r="Q236">
+        <v>7.399999999999991</v>
+      </c>
+      <c r="R236">
+        <v>11.39999999999999</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -12710,6 +14130,12 @@
       <c r="P237">
         <v>0</v>
       </c>
+      <c r="Q237">
+        <v>6.299999999999997</v>
+      </c>
+      <c r="R237">
+        <v>15.40000000000001</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -12762,6 +14188,12 @@
       <c r="P238">
         <v>0</v>
       </c>
+      <c r="Q238">
+        <v>6.399999999999991</v>
+      </c>
+      <c r="R238">
+        <v>12.59999999999999</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -12814,6 +14246,12 @@
       <c r="P239">
         <v>0</v>
       </c>
+      <c r="Q239">
+        <v>7.299999999999997</v>
+      </c>
+      <c r="R239">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -12866,6 +14304,12 @@
       <c r="P240">
         <v>0</v>
       </c>
+      <c r="Q240">
+        <v>7.300000000000011</v>
+      </c>
+      <c r="R240">
+        <v>17.40000000000001</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -12918,6 +14362,12 @@
       <c r="P241">
         <v>0</v>
       </c>
+      <c r="Q241">
+        <v>4.600000000000009</v>
+      </c>
+      <c r="R241">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -12970,6 +14420,12 @@
       <c r="P242">
         <v>0</v>
       </c>
+      <c r="Q242">
+        <v>6.099999999999994</v>
+      </c>
+      <c r="R242">
+        <v>11.09999999999999</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13022,6 +14478,12 @@
       <c r="P243">
         <v>0</v>
       </c>
+      <c r="Q243">
+        <v>8.700000000000003</v>
+      </c>
+      <c r="R243">
+        <v>12.60000000000001</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13074,6 +14536,12 @@
       <c r="P244">
         <v>0</v>
       </c>
+      <c r="Q244">
+        <v>5.900000000000006</v>
+      </c>
+      <c r="R244">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13126,6 +14594,12 @@
       <c r="P245">
         <v>0</v>
       </c>
+      <c r="Q245">
+        <v>9.5</v>
+      </c>
+      <c r="R245">
+        <v>13.39999999999999</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13178,6 +14652,12 @@
       <c r="P246">
         <v>0</v>
       </c>
+      <c r="Q246">
+        <v>7</v>
+      </c>
+      <c r="R246">
+        <v>14.60000000000001</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13230,6 +14710,12 @@
       <c r="P247">
         <v>0</v>
       </c>
+      <c r="Q247">
+        <v>8.600000000000009</v>
+      </c>
+      <c r="R247">
+        <v>17.7</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13282,6 +14768,12 @@
       <c r="P248">
         <v>0</v>
       </c>
+      <c r="Q248">
+        <v>6.299999999999997</v>
+      </c>
+      <c r="R248">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13334,6 +14826,12 @@
       <c r="P249">
         <v>1</v>
       </c>
+      <c r="Q249">
+        <v>5.899999999999991</v>
+      </c>
+      <c r="R249">
+        <v>11</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13386,6 +14884,12 @@
       <c r="P250">
         <v>0</v>
       </c>
+      <c r="Q250">
+        <v>8.899999999999991</v>
+      </c>
+      <c r="R250">
+        <v>12.09999999999999</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13438,6 +14942,12 @@
       <c r="P251">
         <v>0</v>
       </c>
+      <c r="Q251">
+        <v>6</v>
+      </c>
+      <c r="R251">
+        <v>15</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -13490,6 +15000,12 @@
       <c r="P252">
         <v>0</v>
       </c>
+      <c r="Q252">
+        <v>5.5</v>
+      </c>
+      <c r="R252">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -13542,6 +15058,12 @@
       <c r="P253">
         <v>0</v>
       </c>
+      <c r="Q253">
+        <v>7.400000000000006</v>
+      </c>
+      <c r="R253">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13594,6 +15116,12 @@
       <c r="P254">
         <v>0</v>
       </c>
+      <c r="Q254">
+        <v>15.3</v>
+      </c>
+      <c r="R254">
+        <v>16</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -13646,6 +15174,12 @@
       <c r="P255">
         <v>1</v>
       </c>
+      <c r="Q255">
+        <v>7.5</v>
+      </c>
+      <c r="R255">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -13698,6 +15232,12 @@
       <c r="P256">
         <v>0</v>
       </c>
+      <c r="Q256">
+        <v>7</v>
+      </c>
+      <c r="R256">
+        <v>19.8</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -13750,6 +15290,12 @@
       <c r="P257">
         <v>0</v>
       </c>
+      <c r="Q257">
+        <v>7</v>
+      </c>
+      <c r="R257">
+        <v>15.69999999999999</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -13802,6 +15348,12 @@
       <c r="P258">
         <v>0</v>
       </c>
+      <c r="Q258">
+        <v>7</v>
+      </c>
+      <c r="R258">
+        <v>15.59999999999999</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -13854,6 +15406,12 @@
       <c r="P259">
         <v>0</v>
       </c>
+      <c r="Q259">
+        <v>9.099999999999994</v>
+      </c>
+      <c r="R259">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -13906,6 +15464,12 @@
       <c r="P260">
         <v>0</v>
       </c>
+      <c r="Q260">
+        <v>6</v>
+      </c>
+      <c r="R260">
+        <v>11.80000000000001</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -13958,6 +15522,12 @@
       <c r="P261">
         <v>0</v>
       </c>
+      <c r="Q261">
+        <v>7.900000000000006</v>
+      </c>
+      <c r="R261">
+        <v>18.09999999999999</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14010,6 +15580,12 @@
       <c r="P262">
         <v>0</v>
       </c>
+      <c r="Q262">
+        <v>8.599999999999994</v>
+      </c>
+      <c r="R262">
+        <v>13.09999999999999</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14062,6 +15638,12 @@
       <c r="P263">
         <v>0</v>
       </c>
+      <c r="Q263">
+        <v>7.399999999999991</v>
+      </c>
+      <c r="R263">
+        <v>13.09999999999999</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14114,6 +15696,12 @@
       <c r="P264">
         <v>1</v>
       </c>
+      <c r="Q264">
+        <v>3.700000000000003</v>
+      </c>
+      <c r="R264">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14166,6 +15754,12 @@
       <c r="P265">
         <v>0</v>
       </c>
+      <c r="Q265">
+        <v>7.699999999999989</v>
+      </c>
+      <c r="R265">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14218,6 +15812,12 @@
       <c r="P266">
         <v>0</v>
       </c>
+      <c r="Q266">
+        <v>7.700000000000003</v>
+      </c>
+      <c r="R266">
+        <v>13</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14270,6 +15870,12 @@
       <c r="P267">
         <v>0</v>
       </c>
+      <c r="Q267">
+        <v>4.400000000000006</v>
+      </c>
+      <c r="R267">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -14322,6 +15928,12 @@
       <c r="P268">
         <v>0</v>
       </c>
+      <c r="Q268">
+        <v>7.600000000000009</v>
+      </c>
+      <c r="R268">
+        <v>17.60000000000001</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14374,6 +15986,12 @@
       <c r="P269">
         <v>0</v>
       </c>
+      <c r="Q269">
+        <v>8.200000000000003</v>
+      </c>
+      <c r="R269">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -14426,6 +16044,12 @@
       <c r="P270">
         <v>0</v>
       </c>
+      <c r="Q270">
+        <v>6</v>
+      </c>
+      <c r="R270">
+        <v>14.60000000000001</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -14478,6 +16102,12 @@
       <c r="P271">
         <v>0</v>
       </c>
+      <c r="Q271">
+        <v>6.900000000000006</v>
+      </c>
+      <c r="R271">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -14530,6 +16160,12 @@
       <c r="P272">
         <v>0</v>
       </c>
+      <c r="Q272">
+        <v>6.899999999999991</v>
+      </c>
+      <c r="R272">
+        <v>13.19999999999999</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -14582,6 +16218,12 @@
       <c r="P273">
         <v>0</v>
       </c>
+      <c r="Q273">
+        <v>8.799999999999997</v>
+      </c>
+      <c r="R273">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -14634,6 +16276,12 @@
       <c r="P274">
         <v>0</v>
       </c>
+      <c r="Q274">
+        <v>6.399999999999991</v>
+      </c>
+      <c r="R274">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -14686,6 +16334,12 @@
       <c r="P275">
         <v>0</v>
       </c>
+      <c r="Q275">
+        <v>6</v>
+      </c>
+      <c r="R275">
+        <v>15.60000000000001</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -14738,6 +16392,12 @@
       <c r="P276">
         <v>0</v>
       </c>
+      <c r="Q276">
+        <v>8.200000000000003</v>
+      </c>
+      <c r="R276">
+        <v>16.90000000000001</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -14790,6 +16450,12 @@
       <c r="P277">
         <v>0</v>
       </c>
+      <c r="Q277">
+        <v>8.400000000000006</v>
+      </c>
+      <c r="R277">
+        <v>14.40000000000001</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -14842,6 +16508,12 @@
       <c r="P278">
         <v>0</v>
       </c>
+      <c r="Q278">
+        <v>8</v>
+      </c>
+      <c r="R278">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -14894,6 +16566,12 @@
       <c r="P279">
         <v>0</v>
       </c>
+      <c r="Q279">
+        <v>7.600000000000009</v>
+      </c>
+      <c r="R279">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -14946,6 +16624,12 @@
       <c r="P280">
         <v>0</v>
       </c>
+      <c r="Q280">
+        <v>9.5</v>
+      </c>
+      <c r="R280">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -14998,6 +16682,12 @@
       <c r="P281">
         <v>0</v>
       </c>
+      <c r="Q281">
+        <v>11.7</v>
+      </c>
+      <c r="R281">
+        <v>17.3</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15050,6 +16740,12 @@
       <c r="P282">
         <v>0</v>
       </c>
+      <c r="Q282">
+        <v>8.799999999999997</v>
+      </c>
+      <c r="R282">
+        <v>12</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15102,6 +16798,12 @@
       <c r="P283">
         <v>0</v>
       </c>
+      <c r="Q283">
+        <v>7</v>
+      </c>
+      <c r="R283">
+        <v>15.69999999999999</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15154,6 +16856,12 @@
       <c r="P284">
         <v>0</v>
       </c>
+      <c r="Q284">
+        <v>8.600000000000009</v>
+      </c>
+      <c r="R284">
+        <v>14</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15206,6 +16914,12 @@
       <c r="P285">
         <v>0</v>
       </c>
+      <c r="Q285">
+        <v>11.8</v>
+      </c>
+      <c r="R285">
+        <v>17.39999999999999</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -15258,6 +16972,12 @@
       <c r="P286">
         <v>0</v>
       </c>
+      <c r="Q286">
+        <v>6.199999999999989</v>
+      </c>
+      <c r="R286">
+        <v>10.59999999999999</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -15310,6 +17030,12 @@
       <c r="P287">
         <v>0</v>
       </c>
+      <c r="Q287">
+        <v>10</v>
+      </c>
+      <c r="R287">
+        <v>16.30000000000001</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -15362,6 +17088,12 @@
       <c r="P288">
         <v>0</v>
       </c>
+      <c r="Q288">
+        <v>8.799999999999997</v>
+      </c>
+      <c r="R288">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -15414,6 +17146,12 @@
       <c r="P289">
         <v>0</v>
       </c>
+      <c r="Q289">
+        <v>8.700000000000003</v>
+      </c>
+      <c r="R289">
+        <v>14.39999999999999</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -15466,6 +17204,12 @@
       <c r="P290">
         <v>0</v>
       </c>
+      <c r="Q290">
+        <v>6.700000000000003</v>
+      </c>
+      <c r="R290">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -15518,6 +17262,12 @@
       <c r="P291">
         <v>1</v>
       </c>
+      <c r="Q291">
+        <v>9.400000000000006</v>
+      </c>
+      <c r="R291">
+        <v>16.59999999999999</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -15570,6 +17320,12 @@
       <c r="P292">
         <v>0</v>
       </c>
+      <c r="Q292">
+        <v>7.700000000000003</v>
+      </c>
+      <c r="R292">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -15622,6 +17378,12 @@
       <c r="P293">
         <v>0</v>
       </c>
+      <c r="Q293">
+        <v>8</v>
+      </c>
+      <c r="R293">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -15674,6 +17436,12 @@
       <c r="P294">
         <v>0</v>
       </c>
+      <c r="Q294">
+        <v>4.799999999999997</v>
+      </c>
+      <c r="R294">
+        <v>22.3</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -15726,6 +17494,12 @@
       <c r="P295">
         <v>1</v>
       </c>
+      <c r="Q295">
+        <v>6.800000000000011</v>
+      </c>
+      <c r="R295">
+        <v>13</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -15778,6 +17552,12 @@
       <c r="P296">
         <v>0</v>
       </c>
+      <c r="Q296">
+        <v>7.600000000000009</v>
+      </c>
+      <c r="R296">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -15830,6 +17610,12 @@
       <c r="P297">
         <v>0</v>
       </c>
+      <c r="Q297">
+        <v>8</v>
+      </c>
+      <c r="R297">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -15882,6 +17668,12 @@
       <c r="P298">
         <v>0</v>
       </c>
+      <c r="Q298">
+        <v>9.5</v>
+      </c>
+      <c r="R298">
+        <v>18.10000000000001</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -15934,6 +17726,12 @@
       <c r="P299">
         <v>0</v>
       </c>
+      <c r="Q299">
+        <v>7.099999999999994</v>
+      </c>
+      <c r="R299">
+        <v>15.09999999999999</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -15986,6 +17784,12 @@
       <c r="P300">
         <v>0</v>
       </c>
+      <c r="Q300">
+        <v>6.300000000000011</v>
+      </c>
+      <c r="R300">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -16038,6 +17842,12 @@
       <c r="P301">
         <v>0</v>
       </c>
+      <c r="Q301">
+        <v>7.5</v>
+      </c>
+      <c r="R301">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16089,6 +17899,12 @@
       </c>
       <c r="P302">
         <v>0</v>
+      </c>
+      <c r="Q302">
+        <v>5.900000000000006</v>
+      </c>
+      <c r="R302">
+        <v>11.40000000000001</v>
       </c>
     </row>
   </sheetData>
